--- a/Code/Results/Cases/Case_2_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_170/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.93672452545848</v>
+        <v>12.85240442524551</v>
       </c>
       <c r="C2">
-        <v>15.96824271968072</v>
+        <v>9.0788740838943</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.90629518185854</v>
+        <v>20.62834473828746</v>
       </c>
       <c r="F2">
-        <v>31.14970104667266</v>
+        <v>38.92350550351049</v>
       </c>
       <c r="G2">
-        <v>26.91535552254374</v>
+        <v>28.42488304902704</v>
       </c>
       <c r="H2">
-        <v>9.009258922770041</v>
+        <v>13.95966697617882</v>
       </c>
       <c r="I2">
-        <v>12.16021927666333</v>
+        <v>19.47283218963927</v>
       </c>
       <c r="J2">
-        <v>4.516024419047607</v>
+        <v>7.796946191828069</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.85979586798179</v>
+        <v>19.21422926399112</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.56051986326577</v>
+        <v>12.22708506964004</v>
       </c>
       <c r="C3">
-        <v>14.9278747714592</v>
+        <v>8.510838904662814</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.49638266678675</v>
+        <v>20.60201019245705</v>
       </c>
       <c r="F3">
-        <v>30.04003546108985</v>
+        <v>38.87529702873183</v>
       </c>
       <c r="G3">
-        <v>25.83725223647228</v>
+        <v>28.38786841492724</v>
       </c>
       <c r="H3">
-        <v>8.999907347323854</v>
+        <v>14.02200283053265</v>
       </c>
       <c r="I3">
-        <v>12.38586658247392</v>
+        <v>19.6157394895085</v>
       </c>
       <c r="J3">
-        <v>4.607247785566388</v>
+        <v>7.825545148011106</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.85100930039205</v>
+        <v>18.99423397864439</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.66828521639769</v>
+        <v>11.82744436561093</v>
       </c>
       <c r="C4">
-        <v>14.25459977637987</v>
+        <v>8.14075129727413</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.24498858782227</v>
+        <v>20.5887531096169</v>
       </c>
       <c r="F4">
-        <v>29.37395721344641</v>
+        <v>38.85779920985581</v>
       </c>
       <c r="G4">
-        <v>25.21172647187762</v>
+        <v>28.38141716824682</v>
       </c>
       <c r="H4">
-        <v>9.006848377196629</v>
+        <v>14.06414934920251</v>
       </c>
       <c r="I4">
-        <v>12.54589753587153</v>
+        <v>19.7097307757095</v>
       </c>
       <c r="J4">
-        <v>4.66435086092664</v>
+        <v>7.843948740452046</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.20722121993082</v>
+        <v>18.86084871705897</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29274749201267</v>
+        <v>11.66084029080158</v>
       </c>
       <c r="C5">
-        <v>13.97151770653158</v>
+        <v>7.984585093640034</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.14273418341144</v>
+        <v>20.58408681918998</v>
       </c>
       <c r="F5">
-        <v>29.10664902330165</v>
+        <v>38.85371243521452</v>
       </c>
       <c r="G5">
-        <v>24.96618424576128</v>
+        <v>28.38286222507772</v>
       </c>
       <c r="H5">
-        <v>9.012690285092722</v>
+        <v>14.08229369517192</v>
       </c>
       <c r="I5">
-        <v>12.61609374985093</v>
+        <v>19.74959718781722</v>
       </c>
       <c r="J5">
-        <v>4.687912769766153</v>
+        <v>7.851661253850839</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.93894404307761</v>
+        <v>18.80697319909702</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.22966660140062</v>
+        <v>11.63295592773336</v>
       </c>
       <c r="C6">
-        <v>13.92398457456076</v>
+        <v>7.958330829450379</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.12576999785807</v>
+        <v>20.58335654355108</v>
       </c>
       <c r="F6">
-        <v>29.06252038092308</v>
+        <v>38.85321761772263</v>
       </c>
       <c r="G6">
-        <v>24.92598297213319</v>
+        <v>28.383347552362</v>
       </c>
       <c r="H6">
-        <v>9.013837198971139</v>
+        <v>14.08536496480388</v>
       </c>
       <c r="I6">
-        <v>12.62803912180973</v>
+        <v>19.75631126783288</v>
       </c>
       <c r="J6">
-        <v>4.691843328793953</v>
+        <v>7.852954791201823</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.89404577202458</v>
+        <v>18.79805777858418</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.66326902662879</v>
+        <v>11.82521237113485</v>
       </c>
       <c r="C7">
-        <v>14.25081737875614</v>
+        <v>8.138666845022145</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.24360861693293</v>
+        <v>20.58868719342323</v>
       </c>
       <c r="F7">
-        <v>29.37033511578237</v>
+        <v>38.85773177196213</v>
       </c>
       <c r="G7">
-        <v>25.20837684359685</v>
+        <v>28.38142019134299</v>
       </c>
       <c r="H7">
-        <v>9.006915194154725</v>
+        <v>14.06439013139686</v>
       </c>
       <c r="I7">
-        <v>12.54682458148179</v>
+        <v>19.71026210298942</v>
       </c>
       <c r="J7">
-        <v>4.664667420721236</v>
+        <v>7.844051891110006</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.20362683518182</v>
+        <v>18.86012011798859</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.47197015355501</v>
+        <v>12.64016075020841</v>
       </c>
       <c r="C8">
-        <v>15.61664983965568</v>
+        <v>8.887441144782317</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.76496387967826</v>
+        <v>20.61866245563203</v>
       </c>
       <c r="F8">
-        <v>30.76408801443008</v>
+        <v>38.9043725689946</v>
       </c>
       <c r="G8">
-        <v>26.53619377334611</v>
+        <v>28.40873323523803</v>
       </c>
       <c r="H8">
-        <v>9.003296381975391</v>
+        <v>13.98035412597317</v>
       </c>
       <c r="I8">
-        <v>12.23329989467215</v>
+        <v>19.5208065045801</v>
       </c>
       <c r="J8">
-        <v>4.547262562169493</v>
+        <v>7.80663244577042</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.51713525045387</v>
+        <v>19.13805642541863</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.64759863220983</v>
+        <v>14.10654509536595</v>
       </c>
       <c r="C9">
-        <v>18.02412290957062</v>
+        <v>10.18664595776804</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.78501966702828</v>
+        <v>20.70037519937905</v>
       </c>
       <c r="F9">
-        <v>33.60687877566864</v>
+        <v>39.09170557795041</v>
       </c>
       <c r="G9">
-        <v>29.41948262259175</v>
+        <v>28.59192075960036</v>
       </c>
       <c r="H9">
-        <v>9.104654530020264</v>
+        <v>13.8464758632442</v>
       </c>
       <c r="I9">
-        <v>11.80966204191059</v>
+        <v>19.19912964764541</v>
       </c>
       <c r="J9">
-        <v>4.324838961647364</v>
+        <v>7.739913425982957</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.95213798848868</v>
+        <v>19.69410168647617</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.76019552948819</v>
+        <v>15.09574492080702</v>
       </c>
       <c r="C10">
-        <v>19.6323144941293</v>
+        <v>11.03827851807474</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.52763232946421</v>
+        <v>20.77413088818764</v>
       </c>
       <c r="F10">
-        <v>35.74955087703297</v>
+        <v>39.28737756873548</v>
       </c>
       <c r="G10">
-        <v>31.69631941330334</v>
+        <v>28.80568285287261</v>
       </c>
       <c r="H10">
-        <v>9.255777925013206</v>
+        <v>13.76722392980784</v>
       </c>
       <c r="I10">
-        <v>11.64614115426015</v>
+        <v>18.99358623160506</v>
       </c>
       <c r="J10">
-        <v>4.16488582158563</v>
+        <v>7.69490706912853</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.78420215341933</v>
+        <v>20.10608891344972</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.67484459130792</v>
+        <v>15.5253956051199</v>
       </c>
       <c r="C11">
-        <v>20.33026909090526</v>
+        <v>11.40346662431985</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.86309952077595</v>
+        <v>20.81060068340708</v>
       </c>
       <c r="F11">
-        <v>36.73425281879892</v>
+        <v>39.38884431368134</v>
       </c>
       <c r="G11">
-        <v>32.76476061493068</v>
+        <v>28.91999621999826</v>
       </c>
       <c r="H11">
-        <v>9.343364071936437</v>
+        <v>13.73537418767391</v>
       </c>
       <c r="I11">
-        <v>11.61124534561995</v>
+        <v>18.90685715963226</v>
       </c>
       <c r="J11">
-        <v>4.092550505772978</v>
+        <v>7.675293372409449</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.57761428361065</v>
+        <v>20.29357732789955</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.01466178719406</v>
+        <v>15.68508950810631</v>
       </c>
       <c r="C12">
-        <v>20.58984555848468</v>
+        <v>11.53856783876933</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.98973863655695</v>
+        <v>20.82482438817546</v>
       </c>
       <c r="F12">
-        <v>37.10849010381348</v>
+        <v>39.4290402106588</v>
       </c>
       <c r="G12">
-        <v>33.17398427178092</v>
+        <v>28.96571694591065</v>
       </c>
       <c r="H12">
-        <v>9.379414063833739</v>
+        <v>13.72392223661954</v>
       </c>
       <c r="I12">
-        <v>11.60435708403769</v>
+        <v>18.87499724001075</v>
       </c>
       <c r="J12">
-        <v>4.065191104913427</v>
+        <v>7.667989050372928</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.87243556544796</v>
+        <v>20.36452824246698</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.94176478218154</v>
+        <v>15.65083136467606</v>
       </c>
       <c r="C13">
-        <v>20.53414931918126</v>
+        <v>11.50961299955963</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.96248295300422</v>
+        <v>20.82174277650447</v>
       </c>
       <c r="F13">
-        <v>37.02783197347536</v>
+        <v>39.42030479015296</v>
       </c>
       <c r="G13">
-        <v>33.08564514148333</v>
+        <v>28.95576240225212</v>
       </c>
       <c r="H13">
-        <v>9.371519103465198</v>
+        <v>13.7263614684767</v>
       </c>
       <c r="I13">
-        <v>11.60554877459347</v>
+        <v>18.88181500967656</v>
       </c>
       <c r="J13">
-        <v>4.07108249530323</v>
+        <v>7.669556709219282</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.80918867431469</v>
+        <v>20.349250680826</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.70293185667392</v>
+        <v>15.53859436180596</v>
       </c>
       <c r="C14">
-        <v>20.35171859706751</v>
+        <v>11.41464531505286</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.8735263869118</v>
+        <v>20.81176262827645</v>
       </c>
       <c r="F14">
-        <v>36.76501471692675</v>
+        <v>39.39211584361642</v>
       </c>
       <c r="G14">
-        <v>32.79833508336472</v>
+        <v>28.92370908852627</v>
       </c>
       <c r="H14">
-        <v>9.34627116463701</v>
+        <v>13.73441980059195</v>
       </c>
       <c r="I14">
-        <v>11.61054809796628</v>
+        <v>18.90421628486937</v>
       </c>
       <c r="J14">
-        <v>4.090299159147903</v>
+        <v>7.67468998113069</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.60198142192074</v>
+        <v>20.29941576680701</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.55579205643777</v>
+        <v>15.46945241755949</v>
       </c>
       <c r="C15">
-        <v>20.23936282957542</v>
+        <v>11.35606001310106</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.8189850421918</v>
+        <v>20.80570314319802</v>
       </c>
       <c r="F15">
-        <v>36.6042061569671</v>
+        <v>39.3750795548903</v>
       </c>
       <c r="G15">
-        <v>32.62295122357252</v>
+        <v>28.90439154141877</v>
       </c>
       <c r="H15">
-        <v>9.331186619816902</v>
+        <v>13.73943518647874</v>
       </c>
       <c r="I15">
-        <v>11.61445364988541</v>
+        <v>18.91806591798887</v>
       </c>
       <c r="J15">
-        <v>4.102073227185101</v>
+        <v>7.677850250707635</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.47433212513661</v>
+        <v>20.26888265262266</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.69949850618499</v>
+        <v>15.06724970154601</v>
       </c>
       <c r="C16">
-        <v>19.5860341891602</v>
+        <v>11.0139660814803</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.50565624306933</v>
+        <v>20.7718056957729</v>
       </c>
       <c r="F16">
-        <v>35.68539072484603</v>
+        <v>39.28099560093874</v>
       </c>
       <c r="G16">
-        <v>31.627144210675</v>
+        <v>28.79855400408848</v>
       </c>
       <c r="H16">
-        <v>9.250448024191337</v>
+        <v>13.76939033938682</v>
       </c>
       <c r="I16">
-        <v>11.64927126197828</v>
+        <v>18.99939120085999</v>
       </c>
       <c r="J16">
-        <v>4.169619292720181</v>
+        <v>7.696206114540523</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.73155638282607</v>
+        <v>20.0938326471415</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.16239877915754</v>
+        <v>14.81523940797071</v>
       </c>
       <c r="C17">
-        <v>19.17670234204849</v>
+        <v>10.79841582414693</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.31279180999298</v>
+        <v>20.75175377172976</v>
       </c>
       <c r="F17">
-        <v>35.12420700231061</v>
+        <v>39.22645600597456</v>
       </c>
       <c r="G17">
-        <v>31.02454765893145</v>
+        <v>28.73798514204011</v>
       </c>
       <c r="H17">
-        <v>9.205867810508691</v>
+        <v>13.78884645230401</v>
       </c>
       <c r="I17">
-        <v>11.6811998185119</v>
+        <v>19.05102246241679</v>
       </c>
       <c r="J17">
-        <v>4.211146418425483</v>
+        <v>7.707686592308568</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.26572843268825</v>
+        <v>19.98642273619178</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.84909910925711</v>
+        <v>14.66837890526599</v>
       </c>
       <c r="C18">
-        <v>18.93809368298942</v>
+        <v>10.67234461471183</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.20164249295091</v>
+        <v>20.74049548460477</v>
       </c>
       <c r="F18">
-        <v>34.80237074135687</v>
+        <v>39.19625985000631</v>
       </c>
       <c r="G18">
-        <v>30.68102781766247</v>
+        <v>28.70475621898596</v>
       </c>
       <c r="H18">
-        <v>9.181989571310814</v>
+        <v>13.80043237200385</v>
       </c>
       <c r="I18">
-        <v>11.7032410825141</v>
+        <v>19.08135644633105</v>
       </c>
       <c r="J18">
-        <v>4.235073930556775</v>
+        <v>7.714370840657262</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.99402320469371</v>
+        <v>19.92465367795192</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.74226622512077</v>
+        <v>14.6183289709126</v>
       </c>
       <c r="C19">
-        <v>18.85675695411201</v>
+        <v>10.62929947230616</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.16397364327942</v>
+        <v>20.73673104500044</v>
       </c>
       <c r="F19">
-        <v>34.69356780767413</v>
+        <v>39.18623802108512</v>
       </c>
       <c r="G19">
-        <v>30.56524996421618</v>
+        <v>28.69378232749953</v>
       </c>
       <c r="H19">
-        <v>9.174202258649306</v>
+        <v>13.80442291445911</v>
       </c>
       <c r="I19">
-        <v>11.71131594906212</v>
+        <v>19.09173617214161</v>
       </c>
       <c r="J19">
-        <v>4.243183466820185</v>
+        <v>7.716647942179298</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.9013767280516</v>
+        <v>19.90374326923515</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.22002576843692</v>
+        <v>14.8422647292111</v>
       </c>
       <c r="C20">
-        <v>19.22060392253747</v>
+        <v>10.82157801811487</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.33334566256807</v>
+        <v>20.75385991049662</v>
       </c>
       <c r="F20">
-        <v>35.18384929977296</v>
+        <v>39.2321405010335</v>
       </c>
       <c r="G20">
-        <v>31.0883773274751</v>
+        <v>28.74426644576694</v>
       </c>
       <c r="H20">
-        <v>9.210429700839711</v>
+        <v>13.78673437270922</v>
       </c>
       <c r="I20">
-        <v>11.67741580024353</v>
+        <v>19.04546023388002</v>
       </c>
       <c r="J20">
-        <v>4.206721618818595</v>
+        <v>7.706456099644796</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.31570625454489</v>
+        <v>19.99785605989178</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.77325929639614</v>
+        <v>15.57164322677956</v>
       </c>
       <c r="C21">
-        <v>20.40543018134833</v>
+        <v>11.44262606457181</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.89966618720245</v>
+        <v>20.81468287202446</v>
       </c>
       <c r="F21">
-        <v>36.84217419465438</v>
+        <v>39.40034767251495</v>
       </c>
       <c r="G21">
-        <v>32.88259960883124</v>
+        <v>28.93305811230999</v>
       </c>
       <c r="H21">
-        <v>9.353607485967313</v>
+        <v>13.73203631303944</v>
       </c>
       <c r="I21">
-        <v>11.6089027528084</v>
+        <v>18.89760975404137</v>
       </c>
       <c r="J21">
-        <v>4.084654126275258</v>
+        <v>7.673178883191907</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.66299487332416</v>
+        <v>20.31405521344277</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.75033253122977</v>
+        <v>16.03078853135026</v>
       </c>
       <c r="C22">
-        <v>21.15230910122864</v>
+        <v>11.82994181976383</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.26747120794079</v>
+        <v>20.85684056454621</v>
       </c>
       <c r="F22">
-        <v>37.93387100252711</v>
+        <v>39.52060248051392</v>
       </c>
       <c r="G22">
-        <v>34.09931752298362</v>
+        <v>29.07060893990076</v>
       </c>
       <c r="H22">
-        <v>9.464064838566348</v>
+        <v>13.69983889543351</v>
       </c>
       <c r="I22">
-        <v>11.60130720411597</v>
+        <v>18.80671176240982</v>
       </c>
       <c r="J22">
-        <v>4.005049204539393</v>
+        <v>7.652146678295823</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.51079449152926</v>
+        <v>20.52041060186567</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.2322863305738</v>
+        <v>15.78736236393437</v>
       </c>
       <c r="C23">
-        <v>20.75615977496863</v>
+        <v>11.62492068886489</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.07139375857931</v>
+        <v>20.83412217952193</v>
       </c>
       <c r="F23">
-        <v>37.35050227365298</v>
+        <v>39.45548262111907</v>
       </c>
       <c r="G23">
-        <v>33.43949668012473</v>
+        <v>28.99590858072136</v>
       </c>
       <c r="H23">
-        <v>9.403510483072271</v>
+        <v>13.7166968691744</v>
       </c>
       <c r="I23">
-        <v>11.60174164626079</v>
+        <v>18.85469850251292</v>
       </c>
       <c r="J23">
-        <v>4.047530407205963</v>
+        <v>7.66330664231358</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.06125880833631</v>
+        <v>20.41032087902132</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.19398667593572</v>
+        <v>14.83005273138046</v>
       </c>
       <c r="C24">
-        <v>19.20076623747558</v>
+        <v>10.81111308306035</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.32405409913918</v>
+        <v>20.75290688418941</v>
       </c>
       <c r="F24">
-        <v>35.15688253134331</v>
+        <v>39.22956692794011</v>
       </c>
       <c r="G24">
-        <v>31.05951082958119</v>
+        <v>28.74142170478618</v>
       </c>
       <c r="H24">
-        <v>9.208361827853262</v>
+        <v>13.78768799711941</v>
       </c>
       <c r="I24">
-        <v>11.67911512553332</v>
+        <v>19.04797289169173</v>
       </c>
       <c r="J24">
-        <v>4.208721903425673</v>
+        <v>7.70701214374586</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.29312342128029</v>
+        <v>19.99268710487356</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.82769333940768</v>
+        <v>13.72485182075879</v>
       </c>
       <c r="C25">
-        <v>17.40141014069685</v>
+        <v>9.853272583955086</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.50991973482756</v>
+        <v>20.67583982483934</v>
       </c>
       <c r="F25">
-        <v>32.82755503783836</v>
+        <v>39.0307929572477</v>
       </c>
       <c r="G25">
-        <v>28.61087496815572</v>
+        <v>28.52844150334026</v>
       </c>
       <c r="H25">
-        <v>9.064525577789103</v>
+        <v>13.8793565072043</v>
       </c>
       <c r="I25">
-        <v>11.90072594735192</v>
+        <v>19.28077446563222</v>
       </c>
       <c r="J25">
-        <v>4.384301908881792</v>
+        <v>7.757254647108032</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.27234114562856</v>
+        <v>19.54283384174385</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_170/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.85240442524551</v>
+        <v>20.93672452545847</v>
       </c>
       <c r="C2">
-        <v>9.0788740838943</v>
+        <v>15.96824271968067</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.62834473828746</v>
+        <v>13.90629518185852</v>
       </c>
       <c r="F2">
-        <v>38.92350550351049</v>
+        <v>31.14970104667265</v>
       </c>
       <c r="G2">
-        <v>28.42488304902704</v>
+        <v>26.91535552254378</v>
       </c>
       <c r="H2">
-        <v>13.95966697617882</v>
+        <v>9.009258922770009</v>
       </c>
       <c r="I2">
-        <v>19.47283218963927</v>
+        <v>12.16021927666326</v>
       </c>
       <c r="J2">
-        <v>7.796946191828069</v>
+        <v>4.516024419047575</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.21422926399112</v>
+        <v>17.85979586798177</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.22708506964004</v>
+        <v>19.56051986326578</v>
       </c>
       <c r="C3">
-        <v>8.510838904662814</v>
+        <v>14.92787477145893</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.60201019245705</v>
+        <v>13.49638266678672</v>
       </c>
       <c r="F3">
-        <v>38.87529702873183</v>
+        <v>30.04003546108987</v>
       </c>
       <c r="G3">
-        <v>28.38786841492724</v>
+        <v>25.83725223647239</v>
       </c>
       <c r="H3">
-        <v>14.02200283053265</v>
+        <v>8.999907347323887</v>
       </c>
       <c r="I3">
-        <v>19.6157394895085</v>
+        <v>12.38586658247389</v>
       </c>
       <c r="J3">
-        <v>7.825545148011106</v>
+        <v>4.607247785566488</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.99423397864439</v>
+        <v>16.85100930039204</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.82744436561093</v>
+        <v>18.66828521639771</v>
       </c>
       <c r="C4">
-        <v>8.14075129727413</v>
+        <v>14.2545997763798</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.5887531096169</v>
+        <v>13.24498858782233</v>
       </c>
       <c r="F4">
-        <v>38.85779920985581</v>
+        <v>29.37395721344651</v>
       </c>
       <c r="G4">
-        <v>28.38141716824682</v>
+        <v>25.21172647187785</v>
       </c>
       <c r="H4">
-        <v>14.06414934920251</v>
+        <v>9.006848377196652</v>
       </c>
       <c r="I4">
-        <v>19.7097307757095</v>
+        <v>12.54589753587162</v>
       </c>
       <c r="J4">
-        <v>7.843948740452046</v>
+        <v>4.664350860926811</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.86084871705897</v>
+        <v>16.20722121993084</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.66084029080158</v>
+        <v>18.2927474920127</v>
       </c>
       <c r="C5">
-        <v>7.984585093640034</v>
+        <v>13.97151770653162</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.58408681918998</v>
+        <v>13.14273418341144</v>
       </c>
       <c r="F5">
-        <v>38.85371243521452</v>
+        <v>29.10664902330162</v>
       </c>
       <c r="G5">
-        <v>28.38286222507772</v>
+        <v>24.96618424576122</v>
       </c>
       <c r="H5">
-        <v>14.08229369517192</v>
+        <v>9.012690285092715</v>
       </c>
       <c r="I5">
-        <v>19.74959718781722</v>
+        <v>12.61609374985085</v>
       </c>
       <c r="J5">
-        <v>7.851661253850839</v>
+        <v>4.687912769766086</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.80697319909702</v>
+        <v>15.93894404307761</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.63295592773336</v>
+        <v>18.22966660140062</v>
       </c>
       <c r="C6">
-        <v>7.958330829450379</v>
+        <v>13.92398457456073</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.58335654355108</v>
+        <v>13.1257699978581</v>
       </c>
       <c r="F6">
-        <v>38.85321761772263</v>
+        <v>29.0625203809231</v>
       </c>
       <c r="G6">
-        <v>28.383347552362</v>
+        <v>24.92598297213316</v>
       </c>
       <c r="H6">
-        <v>14.08536496480388</v>
+        <v>9.013837198971144</v>
       </c>
       <c r="I6">
-        <v>19.75631126783288</v>
+        <v>12.62803912180969</v>
       </c>
       <c r="J6">
-        <v>7.852954791201823</v>
+        <v>4.691843328793921</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.79805777858418</v>
+        <v>15.8940457720246</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.82521237113485</v>
+        <v>18.66326902662878</v>
       </c>
       <c r="C7">
-        <v>8.138666845022145</v>
+        <v>14.25081737875601</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.58868719342323</v>
+        <v>13.24360861693286</v>
       </c>
       <c r="F7">
-        <v>38.85773177196213</v>
+        <v>29.37033511578236</v>
       </c>
       <c r="G7">
-        <v>28.38142019134299</v>
+        <v>25.20837684359688</v>
       </c>
       <c r="H7">
-        <v>14.06439013139686</v>
+        <v>9.006915194154768</v>
       </c>
       <c r="I7">
-        <v>19.71026210298942</v>
+        <v>12.54682458148178</v>
       </c>
       <c r="J7">
-        <v>7.844051891110006</v>
+        <v>4.664667420721203</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.86012011798859</v>
+        <v>16.20362683518181</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.64016075020841</v>
+        <v>20.47197015355501</v>
       </c>
       <c r="C8">
-        <v>8.887441144782317</v>
+        <v>15.61664983965572</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.61866245563203</v>
+        <v>13.76496387967829</v>
       </c>
       <c r="F8">
-        <v>38.9043725689946</v>
+        <v>30.76408801443003</v>
       </c>
       <c r="G8">
-        <v>28.40873323523803</v>
+        <v>26.53619377334608</v>
       </c>
       <c r="H8">
-        <v>13.98035412597317</v>
+        <v>9.00329638197541</v>
       </c>
       <c r="I8">
-        <v>19.5208065045801</v>
+        <v>12.23329989467209</v>
       </c>
       <c r="J8">
-        <v>7.80663244577042</v>
+        <v>4.547262562169495</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.13805642541863</v>
+        <v>17.51713525045384</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.10654509536595</v>
+        <v>23.64759863220988</v>
       </c>
       <c r="C9">
-        <v>10.18664595776804</v>
+        <v>18.02412290957062</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>20.70037519937905</v>
+        <v>14.78501966702818</v>
       </c>
       <c r="F9">
-        <v>39.09170557795041</v>
+        <v>33.60687877566858</v>
       </c>
       <c r="G9">
-        <v>28.59192075960036</v>
+        <v>29.41948262259179</v>
       </c>
       <c r="H9">
-        <v>13.8464758632442</v>
+        <v>9.104654530020278</v>
       </c>
       <c r="I9">
-        <v>19.19912964764541</v>
+        <v>11.8096620419105</v>
       </c>
       <c r="J9">
-        <v>7.739913425982957</v>
+        <v>4.324838961647265</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.69410168647617</v>
+        <v>19.95213798848872</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.09574492080702</v>
+        <v>25.76019552948817</v>
       </c>
       <c r="C10">
-        <v>11.03827851807474</v>
+        <v>19.63231449412927</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.77413088818764</v>
+        <v>15.5276323294642</v>
       </c>
       <c r="F10">
-        <v>39.28737756873548</v>
+        <v>35.749550877033</v>
       </c>
       <c r="G10">
-        <v>28.80568285287261</v>
+        <v>31.69631941330343</v>
       </c>
       <c r="H10">
-        <v>13.76722392980784</v>
+        <v>9.255777925013213</v>
       </c>
       <c r="I10">
-        <v>18.99358623160506</v>
+        <v>11.64614115426019</v>
       </c>
       <c r="J10">
-        <v>7.69490706912853</v>
+        <v>4.164885821585564</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.10608891344972</v>
+        <v>21.78420215341933</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.5253956051199</v>
+        <v>26.67484459130792</v>
       </c>
       <c r="C11">
-        <v>11.40346662431985</v>
+        <v>20.3302690909054</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.81060068340708</v>
+        <v>15.86309952077597</v>
       </c>
       <c r="F11">
-        <v>39.38884431368134</v>
+        <v>36.73425281879888</v>
       </c>
       <c r="G11">
-        <v>28.91999621999826</v>
+        <v>32.76476061493063</v>
       </c>
       <c r="H11">
-        <v>13.73537418767391</v>
+        <v>9.343364071936429</v>
       </c>
       <c r="I11">
-        <v>18.90685715963226</v>
+        <v>11.61124534561991</v>
       </c>
       <c r="J11">
-        <v>7.675293372409449</v>
+        <v>4.092550505772978</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.29357732789955</v>
+        <v>22.57761428361066</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.68508950810631</v>
+        <v>27.01466178719404</v>
       </c>
       <c r="C12">
-        <v>11.53856783876933</v>
+        <v>20.58984555848463</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.82482438817546</v>
+        <v>15.98973863655688</v>
       </c>
       <c r="F12">
-        <v>39.4290402106588</v>
+        <v>37.10849010381347</v>
       </c>
       <c r="G12">
-        <v>28.96571694591065</v>
+        <v>33.17398427178092</v>
       </c>
       <c r="H12">
-        <v>13.72392223661954</v>
+        <v>9.379414063833792</v>
       </c>
       <c r="I12">
-        <v>18.87499724001075</v>
+        <v>11.60435708403777</v>
       </c>
       <c r="J12">
-        <v>7.667989050372928</v>
+        <v>4.065191104913395</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.36452824246698</v>
+        <v>22.87243556544798</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.65083136467606</v>
+        <v>26.9417647821816</v>
       </c>
       <c r="C13">
-        <v>11.50961299955963</v>
+        <v>20.53414931918114</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.82174277650447</v>
+        <v>15.96248295300413</v>
       </c>
       <c r="F13">
-        <v>39.42030479015296</v>
+        <v>37.02783197347539</v>
       </c>
       <c r="G13">
-        <v>28.95576240225212</v>
+        <v>33.08564514148352</v>
       </c>
       <c r="H13">
-        <v>13.7263614684767</v>
+        <v>9.371519103465264</v>
       </c>
       <c r="I13">
-        <v>18.88181500967656</v>
+        <v>11.60554877459349</v>
       </c>
       <c r="J13">
-        <v>7.669556709219282</v>
+        <v>4.071082495303231</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.349250680826</v>
+        <v>22.80918867431467</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.53859436180596</v>
+        <v>26.70293185667391</v>
       </c>
       <c r="C14">
-        <v>11.41464531505286</v>
+        <v>20.35171859706742</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.81176262827645</v>
+        <v>15.87352638691177</v>
       </c>
       <c r="F14">
-        <v>39.39211584361642</v>
+        <v>36.7650147169267</v>
       </c>
       <c r="G14">
-        <v>28.92370908852627</v>
+        <v>32.79833508336467</v>
       </c>
       <c r="H14">
-        <v>13.73441980059195</v>
+        <v>9.346271164636986</v>
       </c>
       <c r="I14">
-        <v>18.90421628486937</v>
+        <v>11.61054809796622</v>
       </c>
       <c r="J14">
-        <v>7.67468998113069</v>
+        <v>4.090299159147937</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.29941576680701</v>
+        <v>22.60198142192075</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.46945241755949</v>
+        <v>26.5557920564376</v>
       </c>
       <c r="C15">
-        <v>11.35606001310106</v>
+        <v>20.23936282957541</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.80570314319802</v>
+        <v>15.8189850421917</v>
       </c>
       <c r="F15">
-        <v>39.3750795548903</v>
+        <v>36.60420615696718</v>
       </c>
       <c r="G15">
-        <v>28.90439154141877</v>
+        <v>32.62295122357258</v>
       </c>
       <c r="H15">
-        <v>13.73943518647874</v>
+        <v>9.331186619817077</v>
       </c>
       <c r="I15">
-        <v>18.91806591798887</v>
+        <v>11.61445364988567</v>
       </c>
       <c r="J15">
-        <v>7.677850250707635</v>
+        <v>4.102073227185135</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.26888265262266</v>
+        <v>22.47433212513656</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.06724970154601</v>
+        <v>25.69949850618495</v>
       </c>
       <c r="C16">
-        <v>11.0139660814803</v>
+        <v>19.58603418916022</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.7718056957729</v>
+        <v>15.50565624306936</v>
       </c>
       <c r="F16">
-        <v>39.28099560093874</v>
+        <v>35.68539072484606</v>
       </c>
       <c r="G16">
-        <v>28.79855400408848</v>
+        <v>31.6271442106751</v>
       </c>
       <c r="H16">
-        <v>13.76939033938682</v>
+        <v>9.250448024191305</v>
       </c>
       <c r="I16">
-        <v>18.99939120085999</v>
+        <v>11.64927126197834</v>
       </c>
       <c r="J16">
-        <v>7.696206114540523</v>
+        <v>4.169619292720216</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.0938326471415</v>
+        <v>21.73155638282601</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.81523940797071</v>
+        <v>25.1623987791575</v>
       </c>
       <c r="C17">
-        <v>10.79841582414693</v>
+        <v>19.17670234204837</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.75175377172976</v>
+        <v>15.31279180999286</v>
       </c>
       <c r="F17">
-        <v>39.22645600597456</v>
+        <v>35.1242070023107</v>
       </c>
       <c r="G17">
-        <v>28.73798514204011</v>
+        <v>31.02454765893161</v>
       </c>
       <c r="H17">
-        <v>13.78884645230401</v>
+        <v>9.205867810508755</v>
       </c>
       <c r="I17">
-        <v>19.05102246241679</v>
+        <v>11.68119981851205</v>
       </c>
       <c r="J17">
-        <v>7.707686592308568</v>
+        <v>4.21114641842535</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.98642273619178</v>
+        <v>21.26572843268824</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.66837890526599</v>
+        <v>24.84909910925711</v>
       </c>
       <c r="C18">
-        <v>10.67234461471183</v>
+        <v>18.93809368298933</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.74049548460477</v>
+        <v>15.20164249295088</v>
       </c>
       <c r="F18">
-        <v>39.19625985000631</v>
+        <v>34.80237074135687</v>
       </c>
       <c r="G18">
-        <v>28.70475621898596</v>
+        <v>30.68102781766247</v>
       </c>
       <c r="H18">
-        <v>13.80043237200385</v>
+        <v>9.181989571310858</v>
       </c>
       <c r="I18">
-        <v>19.08135644633105</v>
+        <v>11.70324108251408</v>
       </c>
       <c r="J18">
-        <v>7.714370840657262</v>
+        <v>4.235073930556807</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.92465367795192</v>
+        <v>20.9940232046937</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.6183289709126</v>
+        <v>24.7422662251209</v>
       </c>
       <c r="C19">
-        <v>10.62929947230616</v>
+        <v>18.85675695411209</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20.73673104500044</v>
+        <v>15.16397364327956</v>
       </c>
       <c r="F19">
-        <v>39.18623802108512</v>
+        <v>34.69356780767414</v>
       </c>
       <c r="G19">
-        <v>28.69378232749953</v>
+        <v>30.56524996421618</v>
       </c>
       <c r="H19">
-        <v>13.80442291445911</v>
+        <v>9.174202258649213</v>
       </c>
       <c r="I19">
-        <v>19.09173617214161</v>
+        <v>11.71131594906193</v>
       </c>
       <c r="J19">
-        <v>7.716647942179298</v>
+        <v>4.243183466820019</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.90374326923515</v>
+        <v>20.90137672805161</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.8422647292111</v>
+        <v>25.22002576843692</v>
       </c>
       <c r="C20">
-        <v>10.82157801811487</v>
+        <v>19.22060392253743</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.75385991049662</v>
+        <v>15.33334566256805</v>
       </c>
       <c r="F20">
-        <v>39.2321405010335</v>
+        <v>35.183849299773</v>
       </c>
       <c r="G20">
-        <v>28.74426644576694</v>
+        <v>31.0883773274751</v>
       </c>
       <c r="H20">
-        <v>13.78673437270922</v>
+        <v>9.210429700839724</v>
       </c>
       <c r="I20">
-        <v>19.04546023388002</v>
+        <v>11.67741580024347</v>
       </c>
       <c r="J20">
-        <v>7.706456099644796</v>
+        <v>4.206721618818428</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.99785605989178</v>
+        <v>21.3157062545449</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.57164322677956</v>
+        <v>26.77325929639613</v>
       </c>
       <c r="C21">
-        <v>11.44262606457181</v>
+        <v>20.40543018134834</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.81468287202446</v>
+        <v>15.89966618720257</v>
       </c>
       <c r="F21">
-        <v>39.40034767251495</v>
+        <v>36.84217419465438</v>
       </c>
       <c r="G21">
-        <v>28.93305811230999</v>
+        <v>32.88259960883121</v>
       </c>
       <c r="H21">
-        <v>13.73203631303944</v>
+        <v>9.353607485967306</v>
       </c>
       <c r="I21">
-        <v>18.89760975404137</v>
+        <v>11.60890275280843</v>
       </c>
       <c r="J21">
-        <v>7.673178883191907</v>
+        <v>4.084654126275358</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.31405521344277</v>
+        <v>22.6629948733241</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.03078853135026</v>
+        <v>27.75033253122976</v>
       </c>
       <c r="C22">
-        <v>11.82994181976383</v>
+        <v>21.15230910122857</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.85684056454621</v>
+        <v>16.26747120794076</v>
       </c>
       <c r="F22">
-        <v>39.52060248051392</v>
+        <v>37.93387100252713</v>
       </c>
       <c r="G22">
-        <v>29.07060893990076</v>
+        <v>34.09931752298361</v>
       </c>
       <c r="H22">
-        <v>13.69983889543351</v>
+        <v>9.464064838566411</v>
       </c>
       <c r="I22">
-        <v>18.80671176240982</v>
+        <v>11.60130720411604</v>
       </c>
       <c r="J22">
-        <v>7.652146678295823</v>
+        <v>4.005049204539428</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.52041060186567</v>
+        <v>23.51079449152925</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.78736236393437</v>
+        <v>27.23228633057382</v>
       </c>
       <c r="C23">
-        <v>11.62492068886489</v>
+        <v>20.75615977496866</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.83412217952193</v>
+        <v>16.07139375857933</v>
       </c>
       <c r="F23">
-        <v>39.45548262111907</v>
+        <v>37.35050227365307</v>
       </c>
       <c r="G23">
-        <v>28.99590858072136</v>
+        <v>33.43949668012491</v>
       </c>
       <c r="H23">
-        <v>13.7166968691744</v>
+        <v>9.403510483072248</v>
       </c>
       <c r="I23">
-        <v>18.85469850251292</v>
+        <v>11.60174164626088</v>
       </c>
       <c r="J23">
-        <v>7.66330664231358</v>
+        <v>4.047530407206032</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.41032087902132</v>
+        <v>23.06125880833631</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83005273138046</v>
+        <v>25.1939866759358</v>
       </c>
       <c r="C24">
-        <v>10.81111308306035</v>
+        <v>19.20076623747555</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.75290688418941</v>
+        <v>15.32405409913922</v>
       </c>
       <c r="F24">
-        <v>39.22956692794011</v>
+        <v>35.15688253134336</v>
       </c>
       <c r="G24">
-        <v>28.74142170478618</v>
+        <v>31.05951082958128</v>
       </c>
       <c r="H24">
-        <v>13.78768799711941</v>
+        <v>9.208361827853254</v>
       </c>
       <c r="I24">
-        <v>19.04797289169173</v>
+        <v>11.67911512553327</v>
       </c>
       <c r="J24">
-        <v>7.70701214374586</v>
+        <v>4.208721903425673</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.99268710487356</v>
+        <v>21.29312342128029</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.72485182075879</v>
+        <v>22.82769333940759</v>
       </c>
       <c r="C25">
-        <v>9.853272583955086</v>
+        <v>17.40141014069679</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.67583982483934</v>
+        <v>14.50991973482754</v>
       </c>
       <c r="F25">
-        <v>39.0307929572477</v>
+        <v>32.82755503783847</v>
       </c>
       <c r="G25">
-        <v>28.52844150334026</v>
+        <v>28.61087496815594</v>
       </c>
       <c r="H25">
-        <v>13.8793565072043</v>
+        <v>9.06452557778921</v>
       </c>
       <c r="I25">
-        <v>19.28077446563222</v>
+        <v>11.90072594735205</v>
       </c>
       <c r="J25">
-        <v>7.757254647108032</v>
+        <v>4.38430190888176</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.54283384174385</v>
+        <v>19.27234114562856</v>
       </c>
       <c r="N25">
         <v>0</v>
